--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1319537.214075721</v>
+        <v>1315441.572570955</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>355.4683366860526</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>133.8381454408816</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162.2799874598854</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>95.65910954404377</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>279.4148389151715</v>
+        <v>288.911996959311</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1059,16 +1059,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>239.6094327047032</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>141.1762660121947</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>57.36443315209714</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>120.7389995830103</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>97.07162708516627</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756238</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>176.7621441121403</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>3.475606507923444</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>8.616048582069491</v>
       </c>
       <c r="E19" t="n">
-        <v>18.70843787977262</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>21.63824106825099</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>46.35517081455656</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>107.4021082756242</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>13.72582864853726</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>133.3722917337074</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>134.3542165280282</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>100.2207207382361</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>2.607010073152018</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>45.16086499484972</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>25.52471385612679</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4143,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>75.00788511618036</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1203.388756704967</v>
+        <v>1465.289389295558</v>
       </c>
       <c r="C2" t="n">
-        <v>844.329830759459</v>
+        <v>1465.289389295558</v>
       </c>
       <c r="D2" t="n">
-        <v>844.329830759459</v>
+        <v>1465.289389295558</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>1079.501136697314</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>668.5152319077063</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>252.8104816319951</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872917</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X2" t="n">
-        <v>1980.1279287449</v>
+        <v>1855.42872127137</v>
       </c>
       <c r="Y2" t="n">
-        <v>1589.988596769088</v>
+        <v>1465.289389295558</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>1057.327935297104</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>666.0018823909472</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="C4" t="n">
-        <v>666.0018823909472</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="D4" t="n">
-        <v>515.8852429786115</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="E4" t="n">
-        <v>367.9721493962184</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962184</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>1347.327782578335</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W4" t="n">
-        <v>1057.910612541374</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="X4" t="n">
-        <v>829.9210616433568</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="Y4" t="n">
-        <v>829.9210616433568</v>
+        <v>473.8272960668249</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1114.902695549578</v>
+        <v>350.0225872761065</v>
       </c>
       <c r="C5" t="n">
-        <v>1114.902695549578</v>
+        <v>350.0225872761065</v>
       </c>
       <c r="D5" t="n">
-        <v>1114.902695549578</v>
+        <v>350.0225872761065</v>
       </c>
       <c r="E5" t="n">
-        <v>1114.902695549578</v>
+        <v>350.0225872761065</v>
       </c>
       <c r="F5" t="n">
-        <v>703.9167907599701</v>
+        <v>343.0770865269031</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362815</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816079</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400154</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056583</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.507785786469</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.042027525389</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="Y5" t="n">
-        <v>1114.902695549578</v>
+        <v>736.6224273402283</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.427330237016</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>220.18296949591</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>51.24678656800308</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800308</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800308</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800308</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4758,19 +4758,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1092.643294372448</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>850.6135643676971</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>622.6240134696798</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>401.8314343261497</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3267.661949738366</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3061.684202122588</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3061.684202122588</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2730.621314779018</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2377.852659508903</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2377.852659508903</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1987.713327533092</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>626.9042569062804</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>457.9680739783734</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>457.9680739783734</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1325.959442671498</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1036.542272634537</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>808.5527217365201</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>808.5527217365201</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5035,34 +5035,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>2197.062545487567</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2443.452369935893</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2260.597535590798</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438176</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000583</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="20">
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5892,19 +5892,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5998,13 +5998,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2824.769373306003</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>2802.912564146153</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>2652.795924733818</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>2504.882831151424</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F25" t="n">
-        <v>2504.882831151424</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G25" t="n">
-        <v>2337.686731866304</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053498</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>4288.376853076439</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>3999.301626420637</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>3744.61713821475</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>3455.19996817779</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>3227.210417279773</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>3006.417838136243</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6217,31 +6217,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.093974969474</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2113.492509992416</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1824.417283336614</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1569.732795130727</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1280.315625093766</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,37 +6454,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>2381.235169913446</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>2854.440648734749</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098242</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819173</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695815</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E31" t="n">
-        <v>516.3896878871884</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="F31" t="n">
-        <v>369.499740389278</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="G31" t="n">
-        <v>202.303641104158</v>
+        <v>107.6811364303327</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>107.6811364303327</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783594</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640064</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6682,37 +6682,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3807.864035926977</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>4435.461999481584</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4435.461999481584</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2804.65264778894</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>2635.716464861033</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>2485.599825448698</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6931,58 +6931,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.588527385792</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>3060.838905772771</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3060.838905772771</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098242</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>483.6514929544277</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>336.7615454565173</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924459</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718572</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783594</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640064</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="38">
@@ -7162,43 +7162,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3342.53722908186</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153953</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741617</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159224</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467153</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430193</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X40" t="n">
-        <v>3342.53722908186</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y40" t="n">
-        <v>3342.53722908186</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7505,13 +7505,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,31 +8057,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>60.50016306149553</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>294.8344935184735</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878351</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>138.9393975111061</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>75.37549921168772</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>62.89964020219824</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>139.9994244361429</v>
       </c>
       <c r="E19" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>121.5862749664513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>145.6085800303768</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>134.671115187088</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>32.89260457059963</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>67.54000767002827</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.45968844822994</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>32.89260457059962</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>65.30341755403276</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>146.0084629450603</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>180.5487903941874</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>191.8807364711615</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>211.5151132204106</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>936757.8051536798</v>
+        <v>936757.8051536797</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>936757.8051536796</v>
+        <v>936757.8051536797</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>936757.8051536797</v>
+        <v>936757.8051536796</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>936757.8051536798</v>
+        <v>936757.8051536796</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>936757.8051536798</v>
+        <v>936757.8051536797</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>936757.8051536797</v>
+        <v>936757.8051536796</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.06191857</v>
+      </c>
+      <c r="C2" t="n">
         <v>492625.0619185702</v>
-      </c>
-      <c r="C2" t="n">
-        <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="F2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="G2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="I2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="J2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="K2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="M2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="N2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="O2" t="n">
         <v>484287.9598140037</v>
       </c>
-      <c r="K2" t="n">
-        <v>484287.9598140037</v>
-      </c>
-      <c r="L2" t="n">
-        <v>484287.9598140037</v>
-      </c>
-      <c r="M2" t="n">
-        <v>484287.9598140037</v>
-      </c>
-      <c r="N2" t="n">
-        <v>484287.9598140037</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="P2" t="n">
-        <v>484287.9598140037</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403381</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819086</v>
+        <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921026</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810783</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
         <v>9337.200356756592</v>
@@ -26447,19 +26447,19 @@
         <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-851790.7677892965</v>
+        <v>-851790.7677892967</v>
       </c>
       <c r="C6" t="n">
-        <v>262961.0157866228</v>
+        <v>262961.015786623</v>
       </c>
       <c r="D6" t="n">
-        <v>103539.7457887308</v>
+        <v>103539.7457887307</v>
       </c>
       <c r="E6" t="n">
-        <v>48415.76782598475</v>
+        <v>48068.38857162792</v>
       </c>
       <c r="F6" t="n">
-        <v>373828.2296333399</v>
+        <v>373480.8503789831</v>
       </c>
       <c r="G6" t="n">
-        <v>373828.2296333399</v>
+        <v>373480.8503789829</v>
       </c>
       <c r="H6" t="n">
-        <v>373828.2296333401</v>
+        <v>373480.850378983</v>
       </c>
       <c r="I6" t="n">
-        <v>373828.2296333399</v>
+        <v>373480.850378983</v>
       </c>
       <c r="J6" t="n">
-        <v>206223.0518233574</v>
+        <v>205875.6725690004</v>
       </c>
       <c r="K6" t="n">
-        <v>373828.2296333398</v>
+        <v>373480.850378983</v>
       </c>
       <c r="L6" t="n">
-        <v>325534.2596251491</v>
+        <v>325186.8803707922</v>
       </c>
       <c r="M6" t="n">
-        <v>288773.2016978282</v>
+        <v>288425.8224434712</v>
       </c>
       <c r="N6" t="n">
-        <v>373828.22963334</v>
+        <v>373480.8503789828</v>
       </c>
       <c r="O6" t="n">
-        <v>373828.2296333399</v>
+        <v>373480.8503789831</v>
       </c>
       <c r="P6" t="n">
-        <v>373828.2296333401</v>
+        <v>373480.850378983</v>
       </c>
     </row>
   </sheetData>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
+        <v>341.3068326973555</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>190.8166233022541</v>
+      </c>
+      <c r="M4" t="n">
         <v>341.3068326973553</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000389</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>190.8166233022544</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>9.804555084954984</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>167.1804071215238</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.55199272205186</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>190.8638887925472</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>132.1328638577825</v>
+        <v>122.635705813643</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27779,16 +27779,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -27830,13 +27830,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>46.91356563188782</v>
+        <v>115.3258519193762</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>265.6997797295168</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>51.82332863607869</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>24.01601533131053</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>155.0660162386617</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31846,22 +31846,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32083,22 +32083,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,10 +32320,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>242.2322097768141</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32332,13 +32332,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>332.9841464938405</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,10 +32548,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32563,16 +32563,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32718,7 +32718,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N23" t="n">
         <v>981.2715114159425</v>
@@ -32785,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32800,10 +32800,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>579.8936048175474</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,13 +33034,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647483</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>391.9250669264611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>556.795961089985</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,16 +34234,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34444,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>427.431495343536</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>630.2591755145964</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313199</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35032,10 +35032,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>388.6189266346383</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,10 +35968,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>103.6778299969399</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35980,13 +35980,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36211,16 +36211,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>379.5262112417391</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36448,10 +36448,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>448.5518927342141</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,13 +36682,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>477.98533214273</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,19 +37153,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>257.9506595121309</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>425.4542490066517</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1315441.572570955</v>
+        <v>1317202.10287374</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>133.8381454408816</v>
+        <v>285.6883122697278</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -715,7 +715,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>79.41653965146556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -879,13 +879,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>95.65910954404377</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>288.911996959311</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>247.6674874567194</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="W7" t="n">
-        <v>171.1971464172148</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>141.1762660121947</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>108.9812949757281</v>
       </c>
     </row>
     <row r="9">
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>120.7389995830103</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>107.4021082756238</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>3.475606507923444</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>8.616048582069491</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>60.2569068526658</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>13.72582864853726</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3195,13 +3195,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>14.73874327217517</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>62.14989839348819</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>100.2207207382361</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>2.607010073152018</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1465.289389295558</v>
+        <v>1601.84766053555</v>
       </c>
       <c r="C2" t="n">
-        <v>1465.289389295558</v>
+        <v>1232.885143595138</v>
       </c>
       <c r="D2" t="n">
-        <v>1465.289389295558</v>
+        <v>1232.885143595138</v>
       </c>
       <c r="E2" t="n">
-        <v>1079.501136697314</v>
+        <v>1232.885143595138</v>
       </c>
       <c r="F2" t="n">
-        <v>668.5152319077063</v>
+        <v>821.8992388055308</v>
       </c>
       <c r="G2" t="n">
-        <v>252.8104816319951</v>
+        <v>406.1944885298196</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X2" t="n">
-        <v>1855.42872127137</v>
+        <v>1601.84766053555</v>
       </c>
       <c r="Y2" t="n">
-        <v>1465.289389295558</v>
+        <v>1601.84766053555</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>507.241398742976</v>
       </c>
       <c r="L3" t="n">
-        <v>1057.327935297104</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485136</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426267</v>
+        <v>869.6648135671834</v>
       </c>
       <c r="W4" t="n">
-        <v>473.8272960668249</v>
+        <v>580.2476435302228</v>
       </c>
       <c r="X4" t="n">
-        <v>473.8272960668249</v>
+        <v>352.2580926322055</v>
       </c>
       <c r="Y4" t="n">
-        <v>473.8272960668249</v>
+        <v>131.4655134886754</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>350.0225872761065</v>
+        <v>863.4584982637875</v>
       </c>
       <c r="C5" t="n">
-        <v>350.0225872761065</v>
+        <v>494.4959813233758</v>
       </c>
       <c r="D5" t="n">
-        <v>350.0225872761065</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="E5" t="n">
-        <v>350.0225872761065</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F5" t="n">
-        <v>343.0770865269031</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847234</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W5" t="n">
-        <v>1500.22751757712</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X5" t="n">
-        <v>1126.76175931604</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="Y5" t="n">
-        <v>736.6224273402283</v>
+        <v>1250.058338327909</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4634,37 +4634,37 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605188</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919905</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.93511215121</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748155</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924317</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4685,7 +4685,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.0891146802707</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W7" t="n">
-        <v>1463.519709552058</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X7" t="n">
-        <v>1235.53015865404</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>1014.73757951051</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796265</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>921.7704558796265</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>921.7704558796265</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>921.7704558796265</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2841.849394875186</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>285.7963790512222</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>285.7963790512222</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5038,10 +5038,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>516.389687887188</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>369.4997403892776</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>202.3036411041575</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5275,7 +5275,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5284,13 +5284,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2443.452369935893</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2260.597535590798</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2040.996070613739</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2040.996070613739</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1786.311582407852</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1496.894412370891</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,34 +5509,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>579.1554649516142</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1176.533952578166</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1804.131916132773</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5773,31 +5773,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5895,19 +5895,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5971,55 +5971,55 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466572</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,10 +6220,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6232,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="29">
@@ -6457,40 +6457,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.8431516380886</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C31" t="n">
-        <v>572.9069687101817</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D31" t="n">
-        <v>422.7903292978459</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E31" t="n">
-        <v>274.8772357154528</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F31" t="n">
-        <v>274.8772357154528</v>
+        <v>154.6822255254121</v>
       </c>
       <c r="G31" t="n">
-        <v>107.6811364303327</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>107.6811364303327</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683283</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="32">
@@ -6700,7 +6700,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6709,10 +6709,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="35">
@@ -6928,22 +6928,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6955,34 +6955,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>800.5007694647277</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="C37" t="n">
-        <v>631.5645865368208</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D37" t="n">
-        <v>631.5645865368208</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E37" t="n">
-        <v>483.6514929544277</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>336.7615454565173</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.2707707770319</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>634.334587849125</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408906</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648819</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.711814750802</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.9192356072716</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7402,37 +7402,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>211.0329012241563</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>60.50016306149553</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878353</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>138.9393975111061</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>32.8926045706001</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23661,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.89964020219824</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>139.9994244361429</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>186.1428431935225</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>67.54000767002827</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25083,13 +25083,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>131.695219374394</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>65.30341755403276</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>146.0084629450603</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>45.44677382459309</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>936757.8051536798</v>
+        <v>936757.8051536796</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>936757.8051536797</v>
+        <v>936757.8051536796</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>936757.8051536797</v>
+        <v>936757.8051536796</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>936757.8051536797</v>
+        <v>936757.8051536796</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>936757.8051536796</v>
+        <v>936757.8051536798</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>936757.8051536796</v>
+        <v>936757.8051536797</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>936757.8051536797</v>
+        <v>936757.8051536796</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>936757.8051536796</v>
+        <v>936757.8051536797</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>936757.8051536796</v>
+        <v>936757.8051536798</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.0619185701</v>
+      </c>
+      <c r="C2" t="n">
         <v>492625.06191857</v>
-      </c>
-      <c r="C2" t="n">
-        <v>492625.0619185702</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140037</v>
@@ -26334,25 +26334,25 @@
         <v>484287.9598140036</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="J2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
+        <v>484287.9598140034</v>
+      </c>
+      <c r="M2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="N2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="N2" t="n">
-        <v>484287.9598140035</v>
-      </c>
-      <c r="O2" t="n">
-        <v>484287.9598140037</v>
       </c>
       <c r="P2" t="n">
         <v>484287.9598140036</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810786</v>
+        <v>88524.23512810787</v>
       </c>
       <c r="E4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="I4" t="n">
         <v>9337.20035675659</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
         <v>9337.20035675659</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-851790.7677892967</v>
+        <v>-851790.7677892966</v>
       </c>
       <c r="C6" t="n">
-        <v>262961.015786623</v>
+        <v>262961.0157866228</v>
       </c>
       <c r="D6" t="n">
-        <v>103539.7457887307</v>
+        <v>103539.7457887309</v>
       </c>
       <c r="E6" t="n">
-        <v>48068.38857162792</v>
+        <v>48381.02990054904</v>
       </c>
       <c r="F6" t="n">
-        <v>373480.8503789831</v>
+        <v>373793.4917079043</v>
       </c>
       <c r="G6" t="n">
-        <v>373480.8503789829</v>
+        <v>373793.4917079042</v>
       </c>
       <c r="H6" t="n">
-        <v>373480.850378983</v>
+        <v>373793.4917079042</v>
       </c>
       <c r="I6" t="n">
-        <v>373480.850378983</v>
+        <v>373793.4917079041</v>
       </c>
       <c r="J6" t="n">
-        <v>205875.6725690004</v>
+        <v>206188.3138979216</v>
       </c>
       <c r="K6" t="n">
-        <v>373480.850378983</v>
+        <v>373793.4917079042</v>
       </c>
       <c r="L6" t="n">
-        <v>325186.8803707922</v>
+        <v>325499.5216997133</v>
       </c>
       <c r="M6" t="n">
-        <v>288425.8224434712</v>
+        <v>288738.4637723922</v>
       </c>
       <c r="N6" t="n">
-        <v>373480.8503789828</v>
+        <v>373793.4917079041</v>
       </c>
       <c r="O6" t="n">
-        <v>373480.8503789831</v>
+        <v>373793.4917079041</v>
       </c>
       <c r="P6" t="n">
-        <v>373480.850378983</v>
+        <v>373793.4917079041</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>167.1804071215238</v>
+        <v>15.33024029267756</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>100.4154405304717</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27551,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>190.8638887925472</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>122.635705813643</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>138.5704511993342</v>
       </c>
     </row>
     <row r="6">
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27833,10 +27833,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>201.1568951983995</v>
       </c>
       <c r="W7" t="n">
-        <v>115.3258519193762</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>265.6997797295168</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>277.2566436803255</v>
       </c>
     </row>
     <row r="9">
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>24.01601533131053</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32074,10 +32074,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32311,16 +32311,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
-        <v>332.9841464938405</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,10 +32548,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32718,7 +32718,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
         <v>981.2715114159425</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676411</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>427.431495343536</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34795,7 +34795,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308545</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313201</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35032,10 +35032,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>388.6189266346383</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
-        <v>199.0097390795103</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
